--- a/Code/Results/Cases/Case_1_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_135/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9558975743047279</v>
+        <v>1.015994122660331</v>
       </c>
       <c r="D2">
-        <v>1.032655793612475</v>
+        <v>1.04600280854966</v>
       </c>
       <c r="E2">
-        <v>0.9679265097819791</v>
+        <v>1.017522245995445</v>
       </c>
       <c r="F2">
-        <v>1.018888628919962</v>
+        <v>1.0478698538534</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04822615118268</v>
+        <v>1.03560001447132</v>
       </c>
       <c r="J2">
-        <v>0.9794824447380382</v>
+        <v>1.021216464669534</v>
       </c>
       <c r="K2">
-        <v>1.043678182335402</v>
+        <v>1.048769464460674</v>
       </c>
       <c r="L2">
-        <v>0.9798515331330627</v>
+        <v>1.0203711857041</v>
       </c>
       <c r="M2">
-        <v>1.030090940596908</v>
+        <v>1.050631285144986</v>
       </c>
       <c r="N2">
-        <v>0.9961596951505143</v>
+        <v>1.01100072096038</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9636026282120655</v>
+        <v>1.017528445337316</v>
       </c>
       <c r="D3">
-        <v>1.036491378627003</v>
+        <v>1.04676595276577</v>
       </c>
       <c r="E3">
-        <v>0.9742983508288939</v>
+        <v>1.018843091799321</v>
       </c>
       <c r="F3">
-        <v>1.02420277856371</v>
+        <v>1.048965554791632</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049372015265901</v>
+        <v>1.035749323793917</v>
       </c>
       <c r="J3">
-        <v>0.9851372183646142</v>
+        <v>1.022382965011307</v>
       </c>
       <c r="K3">
-        <v>1.046677701996791</v>
+        <v>1.049344289238011</v>
       </c>
       <c r="L3">
-        <v>0.985271005993937</v>
+        <v>1.021496222811384</v>
       </c>
       <c r="M3">
-        <v>1.034535069823474</v>
+        <v>1.051538182075071</v>
       </c>
       <c r="N3">
-        <v>0.9981763546889978</v>
+        <v>1.011403083142908</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9684345582234027</v>
+        <v>1.018520050010412</v>
       </c>
       <c r="D4">
-        <v>1.038906285750992</v>
+        <v>1.047258516485378</v>
       </c>
       <c r="E4">
-        <v>0.9783019737412196</v>
+        <v>1.019696946306224</v>
       </c>
       <c r="F4">
-        <v>1.027548128046963</v>
+        <v>1.049673394045788</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050080237229835</v>
+        <v>1.035844112666199</v>
       </c>
       <c r="J4">
-        <v>0.9886816903321219</v>
+        <v>1.02313626962621</v>
       </c>
       <c r="K4">
-        <v>1.04855677140733</v>
+        <v>1.049714339045488</v>
       </c>
       <c r="L4">
-        <v>0.9886695266482805</v>
+        <v>1.022222851166886</v>
       </c>
       <c r="M4">
-        <v>1.03732506272316</v>
+        <v>1.052123264913848</v>
       </c>
       <c r="N4">
-        <v>0.9994383880558887</v>
+        <v>1.011662484048454</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9704312894188007</v>
+        <v>1.018936640393844</v>
       </c>
       <c r="D5">
-        <v>1.039906132600138</v>
+        <v>1.047465293424365</v>
       </c>
       <c r="E5">
-        <v>0.9799581535750481</v>
+        <v>1.020055716127835</v>
       </c>
       <c r="F5">
-        <v>1.028933234564006</v>
+        <v>1.049970695881091</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050370264578729</v>
+        <v>1.035883525271962</v>
       </c>
       <c r="J5">
-        <v>0.9901458947415162</v>
+        <v>1.02345260576678</v>
       </c>
       <c r="K5">
-        <v>1.049332509209423</v>
+        <v>1.049869453636641</v>
       </c>
       <c r="L5">
-        <v>0.990073794502921</v>
+        <v>1.022528008928907</v>
       </c>
       <c r="M5">
-        <v>1.038478394632715</v>
+        <v>1.05236881908561</v>
       </c>
       <c r="N5">
-        <v>0.9999592097251103</v>
+        <v>1.011771309551694</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9707645799523186</v>
+        <v>1.019006571557109</v>
       </c>
       <c r="D6">
-        <v>1.040073127440898</v>
+        <v>1.047499994786048</v>
       </c>
       <c r="E6">
-        <v>0.9802346984793814</v>
+        <v>1.020115944154147</v>
       </c>
       <c r="F6">
-        <v>1.029164581188472</v>
+        <v>1.050020598173771</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050418516155295</v>
+        <v>1.035890117219833</v>
       </c>
       <c r="J6">
-        <v>0.9903902648316646</v>
+        <v>1.023505699456694</v>
       </c>
       <c r="K6">
-        <v>1.049461940873021</v>
+        <v>1.049895471432276</v>
       </c>
       <c r="L6">
-        <v>0.9903081819320433</v>
+        <v>1.022579227839277</v>
       </c>
       <c r="M6">
-        <v>1.038670921383771</v>
+        <v>1.052410024451756</v>
       </c>
       <c r="N6">
-        <v>1.000046101498467</v>
+        <v>1.011789568595402</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9684613718861094</v>
+        <v>1.018525617602466</v>
       </c>
       <c r="D7">
-        <v>1.038919705359413</v>
+        <v>1.047261280614948</v>
       </c>
       <c r="E7">
-        <v>0.9783242075055213</v>
+        <v>1.019701740947772</v>
       </c>
       <c r="F7">
-        <v>1.027566718192704</v>
+        <v>1.049677367680689</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050084142570185</v>
+        <v>1.035844641014963</v>
       </c>
       <c r="J7">
-        <v>0.9887013549147454</v>
+        <v>1.023140497905607</v>
       </c>
       <c r="K7">
-        <v>1.048567192010746</v>
+        <v>1.049716413478872</v>
       </c>
       <c r="L7">
-        <v>0.988688384880634</v>
+        <v>1.02222692993797</v>
       </c>
       <c r="M7">
-        <v>1.03734054937279</v>
+        <v>1.052126547647691</v>
       </c>
       <c r="N7">
-        <v>0.9994453848959685</v>
+        <v>1.011663939068427</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9585347565199421</v>
+        <v>1.016512908571459</v>
       </c>
       <c r="D8">
-        <v>1.033966324739521</v>
+        <v>1.046260974041784</v>
       </c>
       <c r="E8">
-        <v>0.9701056551434357</v>
+        <v>1.017968805612514</v>
       </c>
       <c r="F8">
-        <v>1.020704539741222</v>
+        <v>1.048240391041728</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048620436116224</v>
+        <v>1.03565085203536</v>
       </c>
       <c r="J8">
-        <v>0.9814181847241329</v>
+        <v>1.021611002803895</v>
       </c>
       <c r="K8">
-        <v>1.044705046929312</v>
+        <v>1.048964123001408</v>
       </c>
       <c r="L8">
-        <v>0.9817063912396558</v>
+        <v>1.020751679199596</v>
       </c>
       <c r="M8">
-        <v>1.031611172296854</v>
+        <v>1.050938136683274</v>
       </c>
       <c r="N8">
-        <v>0.9968504465411751</v>
+        <v>1.011136899850583</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9397547491482133</v>
+        <v>1.012956664017368</v>
       </c>
       <c r="D9">
-        <v>1.024692561781075</v>
+        <v>1.0444887773233</v>
       </c>
       <c r="E9">
-        <v>0.9546271284224174</v>
+        <v>1.014908596520856</v>
       </c>
       <c r="F9">
-        <v>1.007846166636428</v>
+        <v>1.045699330772224</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045774483776879</v>
+        <v>1.035295394798352</v>
       </c>
       <c r="J9">
-        <v>0.9676302566848346</v>
+        <v>1.01890409627993</v>
       </c>
       <c r="K9">
-        <v>1.037397331495131</v>
+        <v>1.047623910025574</v>
       </c>
       <c r="L9">
-        <v>0.9685019021400121</v>
+        <v>1.018141547935889</v>
       </c>
       <c r="M9">
-        <v>1.020813215101102</v>
+        <v>1.048830589368037</v>
       </c>
       <c r="N9">
-        <v>0.9919229417703951</v>
+        <v>1.010200797854806</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9261924742069866</v>
+        <v>1.01057886840537</v>
       </c>
       <c r="D10">
-        <v>1.018092807033713</v>
+        <v>1.043300874740713</v>
       </c>
       <c r="E10">
-        <v>0.9435078306496107</v>
+        <v>1.012863673752276</v>
       </c>
       <c r="F10">
-        <v>0.9986768064088453</v>
+        <v>1.043999150998451</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043678638405519</v>
+        <v>1.035049017934385</v>
       </c>
       <c r="J10">
-        <v>0.9576746975812945</v>
+        <v>1.017091233654087</v>
       </c>
       <c r="K10">
-        <v>1.032142897657216</v>
+        <v>1.046720589361106</v>
       </c>
       <c r="L10">
-        <v>0.9589779066417536</v>
+        <v>1.016394024801468</v>
       </c>
       <c r="M10">
-        <v>1.01306999269331</v>
+        <v>1.047416410908024</v>
       </c>
       <c r="N10">
-        <v>0.9883572518785082</v>
+        <v>1.009571643750741</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9200254876135004</v>
+        <v>1.0095474893276</v>
       </c>
       <c r="D11">
-        <v>1.015122875969479</v>
+        <v>1.042784964417849</v>
       </c>
       <c r="E11">
-        <v>0.938468556826329</v>
+        <v>1.011976980884906</v>
       </c>
       <c r="F11">
-        <v>0.9945432791171767</v>
+        <v>1.04326146577713</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042718986272768</v>
+        <v>1.034940100732812</v>
       </c>
       <c r="J11">
-        <v>0.9531501600293841</v>
+        <v>1.016304203725232</v>
       </c>
       <c r="K11">
-        <v>1.029765123202137</v>
+        <v>1.046327095892657</v>
       </c>
       <c r="L11">
-        <v>0.9546522808943946</v>
+        <v>1.015635487778754</v>
       </c>
       <c r="M11">
-        <v>1.009568840135747</v>
+        <v>1.046801856978305</v>
       </c>
       <c r="N11">
-        <v>0.9867355018132142</v>
+        <v>1.009297980484599</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9176858164524291</v>
+        <v>1.009164112130267</v>
       </c>
       <c r="D12">
-        <v>1.014001556755022</v>
+        <v>1.042593100020983</v>
       </c>
       <c r="E12">
-        <v>0.9365595400883392</v>
+        <v>1.011647431885281</v>
       </c>
       <c r="F12">
-        <v>0.9929812714652586</v>
+        <v>1.042987228927309</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042354198241383</v>
+        <v>1.034899308052766</v>
       </c>
       <c r="J12">
-        <v>0.9514341743615582</v>
+        <v>1.016011550901997</v>
       </c>
       <c r="K12">
-        <v>1.028865336952091</v>
+        <v>1.046180580854841</v>
       </c>
       <c r="L12">
-        <v>0.9530121854187594</v>
+        <v>1.015353449047237</v>
       </c>
       <c r="M12">
-        <v>1.008244186020888</v>
+        <v>1.046573250277749</v>
       </c>
       <c r="N12">
-        <v>0.9861203057374449</v>
+        <v>1.009196141855619</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9181899841597418</v>
+        <v>1.009246360540196</v>
       </c>
       <c r="D13">
-        <v>1.014242927779936</v>
+        <v>1.042634266113093</v>
       </c>
       <c r="E13">
-        <v>0.9369707755894606</v>
+        <v>1.011718130061407</v>
       </c>
       <c r="F13">
-        <v>0.9933175697688399</v>
+        <v>1.04304606401449</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042432832200153</v>
+        <v>1.034908073429748</v>
       </c>
       <c r="J13">
-        <v>0.9518039173717165</v>
+        <v>1.016074340289043</v>
       </c>
       <c r="K13">
-        <v>1.029059114624455</v>
+        <v>1.046212024865871</v>
       </c>
       <c r="L13">
-        <v>0.953365555480317</v>
+        <v>1.015413960285702</v>
       </c>
       <c r="M13">
-        <v>1.008529455800113</v>
+        <v>1.046622302349062</v>
       </c>
       <c r="N13">
-        <v>0.9862528666462229</v>
+        <v>1.009217995127632</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9198331187616324</v>
+        <v>1.009515804959319</v>
       </c>
       <c r="D14">
-        <v>1.015030565835768</v>
+        <v>1.042769109591558</v>
       </c>
       <c r="E14">
-        <v>0.9383115377752291</v>
+        <v>1.01194974421679</v>
       </c>
       <c r="F14">
-        <v>0.9944147196490977</v>
+        <v>1.043238801935954</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042689005832943</v>
+        <v>1.034936735652793</v>
       </c>
       <c r="J14">
-        <v>0.9530090582545172</v>
+        <v>1.016280019416042</v>
       </c>
       <c r="K14">
-        <v>1.029691092006272</v>
+        <v>1.046314992142373</v>
       </c>
       <c r="L14">
-        <v>0.9545174100691591</v>
+        <v>1.015612180207779</v>
       </c>
       <c r="M14">
-        <v>1.009459848742813</v>
+        <v>1.046782967106437</v>
       </c>
       <c r="N14">
-        <v>0.9866849178072707</v>
+        <v>1.009289566318406</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9208388642632749</v>
+        <v>1.009681781542429</v>
       </c>
       <c r="D15">
-        <v>1.015513408257304</v>
+        <v>1.042852160296442</v>
       </c>
       <c r="E15">
-        <v>0.9391325830469278</v>
+        <v>1.012092423708241</v>
       </c>
       <c r="F15">
-        <v>0.995087112611064</v>
+        <v>1.043357523867945</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042845722986724</v>
+        <v>1.034954350864694</v>
       </c>
       <c r="J15">
-        <v>0.9537467926028466</v>
+        <v>1.016406703178162</v>
       </c>
       <c r="K15">
-        <v>1.030078240298334</v>
+        <v>1.046378386734242</v>
       </c>
       <c r="L15">
-        <v>0.9552225851181223</v>
+        <v>1.015734272169935</v>
       </c>
       <c r="M15">
-        <v>1.010029830771001</v>
+        <v>1.04688191362587</v>
       </c>
       <c r="N15">
-        <v>0.9869493856210968</v>
+        <v>1.009333638722408</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9265951643670903</v>
+        <v>1.010647279329926</v>
       </c>
       <c r="D16">
-        <v>1.018287440686454</v>
+        <v>1.043335081476528</v>
       </c>
       <c r="E16">
-        <v>0.9438372546996596</v>
+        <v>1.012922494145183</v>
       </c>
       <c r="F16">
-        <v>0.9989475231342247</v>
+        <v>1.044048076965312</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043741187892218</v>
+        <v>1.035056199309763</v>
       </c>
       <c r="J16">
-        <v>0.9579702056261139</v>
+        <v>1.017143422474447</v>
       </c>
       <c r="K16">
-        <v>1.032298445702487</v>
+        <v>1.046746654634396</v>
       </c>
       <c r="L16">
-        <v>0.9592604833483158</v>
+        <v>1.016444326902632</v>
       </c>
       <c r="M16">
-        <v>1.013299072705613</v>
+        <v>1.047457150136519</v>
       </c>
       <c r="N16">
-        <v>0.9884631513078138</v>
+        <v>1.009589779656025</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9301239759932731</v>
+        <v>1.011252427571169</v>
       </c>
       <c r="D17">
-        <v>1.019996614508694</v>
+        <v>1.043637592092244</v>
       </c>
       <c r="E17">
-        <v>0.9467259550559177</v>
+        <v>1.013442841526445</v>
       </c>
       <c r="F17">
-        <v>1.001323968576709</v>
+        <v>1.044480840056042</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044288599442534</v>
+        <v>1.035119487736606</v>
       </c>
       <c r="J17">
-        <v>0.9605600635677536</v>
+        <v>1.017604993595315</v>
       </c>
       <c r="K17">
-        <v>1.033662885337673</v>
+        <v>1.046977029565916</v>
       </c>
       <c r="L17">
-        <v>0.9617373260848889</v>
+        <v>1.016889226028765</v>
       </c>
       <c r="M17">
-        <v>1.015308823583133</v>
+        <v>1.047817388490848</v>
       </c>
       <c r="N17">
-        <v>0.9893911299808946</v>
+        <v>1.009750117727743</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9321542185294148</v>
+        <v>1.011605229439809</v>
       </c>
       <c r="D18">
-        <v>1.020982817630887</v>
+        <v>1.04381389282556</v>
       </c>
       <c r="E18">
-        <v>0.9483894788234252</v>
+        <v>1.013746233382226</v>
       </c>
       <c r="F18">
-        <v>1.002694526305749</v>
+        <v>1.044733119288688</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044602901695038</v>
+        <v>1.035156187239233</v>
       </c>
       <c r="J18">
-        <v>0.962050307182701</v>
+        <v>1.017874023058829</v>
       </c>
       <c r="K18">
-        <v>1.034448929687071</v>
+        <v>1.047111176729931</v>
       </c>
       <c r="L18">
-        <v>0.9631627969551414</v>
+        <v>1.017148550312981</v>
       </c>
       <c r="M18">
-        <v>1.016466910246252</v>
+        <v>1.048027296830619</v>
       </c>
       <c r="N18">
-        <v>0.9899249828881471</v>
+        <v>1.009843521172261</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9328418533013048</v>
+        <v>1.011725497079173</v>
       </c>
       <c r="D19">
-        <v>1.021317304354916</v>
+        <v>1.04387398164128</v>
       </c>
       <c r="E19">
-        <v>0.9489531640510521</v>
+        <v>1.013849662375704</v>
       </c>
       <c r="F19">
-        <v>1.003159267942142</v>
+        <v>1.044819115623741</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044709237698554</v>
+        <v>1.03516866426591</v>
       </c>
       <c r="J19">
-        <v>0.9625550770845209</v>
+        <v>1.017965721925431</v>
       </c>
       <c r="K19">
-        <v>1.034715319447873</v>
+        <v>1.047156879035292</v>
       </c>
       <c r="L19">
-        <v>0.9636456701160859</v>
+        <v>1.017236943226875</v>
       </c>
       <c r="M19">
-        <v>1.016859438281581</v>
+        <v>1.048098834169899</v>
       </c>
       <c r="N19">
-        <v>0.9901057856042776</v>
+        <v>1.009875349211112</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9297483016716475</v>
+        <v>1.011187518637312</v>
       </c>
       <c r="D20">
-        <v>1.019814354945696</v>
+        <v>1.043605150941936</v>
       </c>
       <c r="E20">
-        <v>0.946418262502434</v>
+        <v>1.013387025432044</v>
       </c>
       <c r="F20">
-        <v>1.001070624706794</v>
+        <v>1.044434423604186</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044230387268094</v>
+        <v>1.035112719786508</v>
       </c>
       <c r="J20">
-        <v>0.9602843260623877</v>
+        <v>1.01755549182724</v>
       </c>
       <c r="K20">
-        <v>1.033517516525857</v>
+        <v>1.046952335965611</v>
       </c>
       <c r="L20">
-        <v>0.9614735940678975</v>
+        <v>1.016841511007119</v>
       </c>
       <c r="M20">
-        <v>1.015094674557623</v>
+        <v>1.047778760334203</v>
       </c>
       <c r="N20">
-        <v>0.9892923418621413</v>
+        <v>1.00973292729965</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.919350650262808</v>
+        <v>1.009436468023033</v>
       </c>
       <c r="D21">
-        <v>1.01479913849689</v>
+        <v>1.042729407968616</v>
       </c>
       <c r="E21">
-        <v>0.9379177742132704</v>
+        <v>1.011881544974262</v>
       </c>
       <c r="F21">
-        <v>0.9940923900025207</v>
+        <v>1.043182051731683</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042613803373801</v>
+        <v>1.034928304619612</v>
       </c>
       <c r="J21">
-        <v>0.9526551793253515</v>
+        <v>1.01621946078874</v>
       </c>
       <c r="K21">
-        <v>1.029505458107606</v>
+        <v>1.046284680627588</v>
       </c>
       <c r="L21">
-        <v>0.9541791655317958</v>
+        <v>1.01555381728333</v>
       </c>
       <c r="M21">
-        <v>1.009186554922557</v>
+        <v>1.046735664581835</v>
       </c>
       <c r="N21">
-        <v>0.9865580528263325</v>
+        <v>1.009268495592347</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9125269642659798</v>
+        <v>1.008333904875009</v>
       </c>
       <c r="D22">
-        <v>1.011540062305704</v>
+        <v>1.042177448952804</v>
       </c>
       <c r="E22">
-        <v>0.9323558069218376</v>
+        <v>1.010933876359486</v>
       </c>
       <c r="F22">
-        <v>0.9895495426952785</v>
+        <v>1.042393316870428</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041548897784931</v>
+        <v>1.034810411446517</v>
       </c>
       <c r="J22">
-        <v>0.9476517996100449</v>
+        <v>1.015377619774331</v>
       </c>
       <c r="K22">
-        <v>1.026886323127341</v>
+        <v>1.045862850301309</v>
       </c>
       <c r="L22">
-        <v>0.9493979608518284</v>
+        <v>1.014742544874372</v>
       </c>
       <c r="M22">
-        <v>1.005330907338911</v>
+        <v>1.046077895059011</v>
       </c>
       <c r="N22">
-        <v>0.9847641252574044</v>
+        <v>1.008975400616499</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.916173242683465</v>
+        <v>1.008918550242514</v>
       </c>
       <c r="D23">
-        <v>1.013278269745134</v>
+        <v>1.042470180623124</v>
       </c>
       <c r="E23">
-        <v>0.9353262126742128</v>
+        <v>1.011436361409522</v>
       </c>
       <c r="F23">
-        <v>0.9919733046992582</v>
+        <v>1.042811566153862</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042118205342263</v>
+        <v>1.034873093219633</v>
       </c>
       <c r="J23">
-        <v>0.950324992814887</v>
+        <v>1.015824071026052</v>
       </c>
       <c r="K23">
-        <v>1.028284363694294</v>
+        <v>1.046086665103291</v>
       </c>
       <c r="L23">
-        <v>0.9519521894847776</v>
+        <v>1.015172774203533</v>
       </c>
       <c r="M23">
-        <v>1.007388924716269</v>
+        <v>1.046426775337048</v>
       </c>
       <c r="N23">
-        <v>0.985722626151685</v>
+        <v>1.009130879743878</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9299181390704396</v>
+        <v>1.011216848718677</v>
       </c>
       <c r="D24">
-        <v>1.019896743257458</v>
+        <v>1.04361981016091</v>
       </c>
       <c r="E24">
-        <v>0.9465573614183416</v>
+        <v>1.013412246687279</v>
       </c>
       <c r="F24">
-        <v>1.001185147895329</v>
+        <v>1.044455397646697</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044256706239144</v>
+        <v>1.035115778598063</v>
       </c>
       <c r="J24">
-        <v>0.9604089827011386</v>
+        <v>1.017577860154867</v>
       </c>
       <c r="K24">
-        <v>1.033583232665253</v>
+        <v>1.04696349464129</v>
       </c>
       <c r="L24">
-        <v>0.9615928224128146</v>
+        <v>1.016863071921271</v>
       </c>
       <c r="M24">
-        <v>1.015191482925173</v>
+        <v>1.047796215392767</v>
       </c>
       <c r="N24">
-        <v>0.9893370028121889</v>
+        <v>1.009740695282076</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9447792643132176</v>
+        <v>1.01387722827824</v>
       </c>
       <c r="D25">
-        <v>1.027159544394031</v>
+        <v>1.044948065006041</v>
       </c>
       <c r="E25">
-        <v>0.9587592248807369</v>
+        <v>1.015700549318791</v>
       </c>
       <c r="F25">
-        <v>1.011269042811429</v>
+        <v>1.046357327541651</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046543684170201</v>
+        <v>1.035388946115932</v>
       </c>
       <c r="J25">
-        <v>0.9713194836204949</v>
+        <v>1.019605325201447</v>
       </c>
       <c r="K25">
-        <v>1.039350381513763</v>
+        <v>1.047972119356874</v>
       </c>
       <c r="L25">
-        <v>0.9720333691322354</v>
+        <v>1.018817614809866</v>
       </c>
       <c r="M25">
-        <v>1.023694904345822</v>
+        <v>1.049377043632187</v>
       </c>
       <c r="N25">
-        <v>0.9932428947213841</v>
+        <v>1.010443690523745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_135/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015994122660331</v>
+        <v>0.9558975743047268</v>
       </c>
       <c r="D2">
-        <v>1.04600280854966</v>
+        <v>1.032655793612475</v>
       </c>
       <c r="E2">
-        <v>1.017522245995445</v>
+        <v>0.9679265097819783</v>
       </c>
       <c r="F2">
-        <v>1.0478698538534</v>
+        <v>1.018888628919962</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03560001447132</v>
+        <v>1.04822615118268</v>
       </c>
       <c r="J2">
-        <v>1.021216464669534</v>
+        <v>0.9794824447380374</v>
       </c>
       <c r="K2">
-        <v>1.048769464460674</v>
+        <v>1.043678182335402</v>
       </c>
       <c r="L2">
-        <v>1.0203711857041</v>
+        <v>0.9798515331330617</v>
       </c>
       <c r="M2">
-        <v>1.050631285144986</v>
+        <v>1.030090940596908</v>
       </c>
       <c r="N2">
-        <v>1.01100072096038</v>
+        <v>0.9961596951505139</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017528445337316</v>
+        <v>0.9636026282120658</v>
       </c>
       <c r="D3">
-        <v>1.04676595276577</v>
+        <v>1.036491378627002</v>
       </c>
       <c r="E3">
-        <v>1.018843091799321</v>
+        <v>0.9742983508288939</v>
       </c>
       <c r="F3">
-        <v>1.048965554791632</v>
+        <v>1.024202778563709</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035749323793917</v>
+        <v>1.0493720152659</v>
       </c>
       <c r="J3">
-        <v>1.022382965011307</v>
+        <v>0.9851372183646144</v>
       </c>
       <c r="K3">
-        <v>1.049344289238011</v>
+        <v>1.04667770199679</v>
       </c>
       <c r="L3">
-        <v>1.021496222811384</v>
+        <v>0.9852710059939371</v>
       </c>
       <c r="M3">
-        <v>1.051538182075071</v>
+        <v>1.034535069823473</v>
       </c>
       <c r="N3">
-        <v>1.011403083142908</v>
+        <v>0.9981763546889979</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018520050010412</v>
+        <v>0.9684345582234026</v>
       </c>
       <c r="D4">
-        <v>1.047258516485378</v>
+        <v>1.038906285750992</v>
       </c>
       <c r="E4">
-        <v>1.019696946306224</v>
+        <v>0.9783019737412194</v>
       </c>
       <c r="F4">
-        <v>1.049673394045788</v>
+        <v>1.027548128046963</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035844112666199</v>
+        <v>1.050080237229835</v>
       </c>
       <c r="J4">
-        <v>1.02313626962621</v>
+        <v>0.9886816903321218</v>
       </c>
       <c r="K4">
-        <v>1.049714339045488</v>
+        <v>1.04855677140733</v>
       </c>
       <c r="L4">
-        <v>1.022222851166886</v>
+        <v>0.9886695266482803</v>
       </c>
       <c r="M4">
-        <v>1.052123264913848</v>
+        <v>1.03732506272316</v>
       </c>
       <c r="N4">
-        <v>1.011662484048454</v>
+        <v>0.9994383880558886</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018936640393844</v>
+        <v>0.970431289418801</v>
       </c>
       <c r="D5">
-        <v>1.047465293424365</v>
+        <v>1.039906132600138</v>
       </c>
       <c r="E5">
-        <v>1.020055716127835</v>
+        <v>0.979958153575048</v>
       </c>
       <c r="F5">
-        <v>1.049970695881091</v>
+        <v>1.028933234564007</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035883525271962</v>
+        <v>1.050370264578729</v>
       </c>
       <c r="J5">
-        <v>1.02345260576678</v>
+        <v>0.9901458947415162</v>
       </c>
       <c r="K5">
-        <v>1.049869453636641</v>
+        <v>1.049332509209423</v>
       </c>
       <c r="L5">
-        <v>1.022528008928907</v>
+        <v>0.990073794502921</v>
       </c>
       <c r="M5">
-        <v>1.05236881908561</v>
+        <v>1.038478394632715</v>
       </c>
       <c r="N5">
-        <v>1.011771309551694</v>
+        <v>0.9999592097251104</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019006571557109</v>
+        <v>0.9707645799523177</v>
       </c>
       <c r="D6">
-        <v>1.047499994786048</v>
+        <v>1.040073127440898</v>
       </c>
       <c r="E6">
-        <v>1.020115944154147</v>
+        <v>0.9802346984793805</v>
       </c>
       <c r="F6">
-        <v>1.050020598173771</v>
+        <v>1.029164581188471</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035890117219833</v>
+        <v>1.050418516155295</v>
       </c>
       <c r="J6">
-        <v>1.023505699456694</v>
+        <v>0.9903902648316638</v>
       </c>
       <c r="K6">
-        <v>1.049895471432276</v>
+        <v>1.04946194087302</v>
       </c>
       <c r="L6">
-        <v>1.022579227839277</v>
+        <v>0.9903081819320425</v>
       </c>
       <c r="M6">
-        <v>1.052410024451756</v>
+        <v>1.038670921383771</v>
       </c>
       <c r="N6">
-        <v>1.011789568595402</v>
+        <v>1.000046101498466</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018525617602466</v>
+        <v>0.968461371886109</v>
       </c>
       <c r="D7">
-        <v>1.047261280614948</v>
+        <v>1.038919705359412</v>
       </c>
       <c r="E7">
-        <v>1.019701740947772</v>
+        <v>0.9783242075055208</v>
       </c>
       <c r="F7">
-        <v>1.049677367680689</v>
+        <v>1.027566718192703</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035844641014963</v>
+        <v>1.050084142570184</v>
       </c>
       <c r="J7">
-        <v>1.023140497905607</v>
+        <v>0.9887013549147451</v>
       </c>
       <c r="K7">
-        <v>1.049716413478872</v>
+        <v>1.048567192010745</v>
       </c>
       <c r="L7">
-        <v>1.02222692993797</v>
+        <v>0.9886883848806336</v>
       </c>
       <c r="M7">
-        <v>1.052126547647691</v>
+        <v>1.037340549372789</v>
       </c>
       <c r="N7">
-        <v>1.011663939068427</v>
+        <v>0.9994453848959683</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016512908571459</v>
+        <v>0.9585347565199417</v>
       </c>
       <c r="D8">
-        <v>1.046260974041784</v>
+        <v>1.033966324739522</v>
       </c>
       <c r="E8">
-        <v>1.017968805612514</v>
+        <v>0.9701056551434353</v>
       </c>
       <c r="F8">
-        <v>1.048240391041728</v>
+        <v>1.020704539741222</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03565085203536</v>
+        <v>1.048620436116224</v>
       </c>
       <c r="J8">
-        <v>1.021611002803895</v>
+        <v>0.9814181847241323</v>
       </c>
       <c r="K8">
-        <v>1.048964123001408</v>
+        <v>1.044705046929312</v>
       </c>
       <c r="L8">
-        <v>1.020751679199596</v>
+        <v>0.9817063912396551</v>
       </c>
       <c r="M8">
-        <v>1.050938136683274</v>
+        <v>1.031611172296854</v>
       </c>
       <c r="N8">
-        <v>1.011136899850583</v>
+        <v>0.9968504465411747</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012956664017368</v>
+        <v>0.939754749148214</v>
       </c>
       <c r="D9">
-        <v>1.0444887773233</v>
+        <v>1.024692561781075</v>
       </c>
       <c r="E9">
-        <v>1.014908596520856</v>
+        <v>0.9546271284224179</v>
       </c>
       <c r="F9">
-        <v>1.045699330772224</v>
+        <v>1.007846166636429</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035295394798352</v>
+        <v>1.04577448377688</v>
       </c>
       <c r="J9">
-        <v>1.01890409627993</v>
+        <v>0.9676302566848356</v>
       </c>
       <c r="K9">
-        <v>1.047623910025574</v>
+        <v>1.037397331495132</v>
       </c>
       <c r="L9">
-        <v>1.018141547935889</v>
+        <v>0.968501902140013</v>
       </c>
       <c r="M9">
-        <v>1.048830589368037</v>
+        <v>1.020813215101104</v>
       </c>
       <c r="N9">
-        <v>1.010200797854806</v>
+        <v>0.9919229417703955</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01057886840537</v>
+        <v>0.9261924742069858</v>
       </c>
       <c r="D10">
-        <v>1.043300874740713</v>
+        <v>1.018092807033712</v>
       </c>
       <c r="E10">
-        <v>1.012863673752276</v>
+        <v>0.9435078306496099</v>
       </c>
       <c r="F10">
-        <v>1.043999150998451</v>
+        <v>0.9986768064088449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035049017934385</v>
+        <v>1.043678638405519</v>
       </c>
       <c r="J10">
-        <v>1.017091233654087</v>
+        <v>0.9576746975812938</v>
       </c>
       <c r="K10">
-        <v>1.046720589361106</v>
+        <v>1.032142897657216</v>
       </c>
       <c r="L10">
-        <v>1.016394024801468</v>
+        <v>0.9589779066417528</v>
       </c>
       <c r="M10">
-        <v>1.047416410908024</v>
+        <v>1.01306999269331</v>
       </c>
       <c r="N10">
-        <v>1.009571643750741</v>
+        <v>0.9883572518785079</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.0095474893276</v>
+        <v>0.9200254876135006</v>
       </c>
       <c r="D11">
-        <v>1.042784964417849</v>
+        <v>1.01512287596948</v>
       </c>
       <c r="E11">
-        <v>1.011976980884906</v>
+        <v>0.9384685568263288</v>
       </c>
       <c r="F11">
-        <v>1.04326146577713</v>
+        <v>0.9945432791171777</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034940100732812</v>
+        <v>1.042718986272768</v>
       </c>
       <c r="J11">
-        <v>1.016304203725232</v>
+        <v>0.9531501600293842</v>
       </c>
       <c r="K11">
-        <v>1.046327095892657</v>
+        <v>1.029765123202138</v>
       </c>
       <c r="L11">
-        <v>1.015635487778754</v>
+        <v>0.9546522808943944</v>
       </c>
       <c r="M11">
-        <v>1.046801856978305</v>
+        <v>1.009568840135747</v>
       </c>
       <c r="N11">
-        <v>1.009297980484599</v>
+        <v>0.986735501813214</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009164112130267</v>
+        <v>0.9176858164524291</v>
       </c>
       <c r="D12">
-        <v>1.042593100020983</v>
+        <v>1.014001556755022</v>
       </c>
       <c r="E12">
-        <v>1.011647431885281</v>
+        <v>0.936559540088339</v>
       </c>
       <c r="F12">
-        <v>1.042987228927309</v>
+        <v>0.9929812714652584</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034899308052766</v>
+        <v>1.042354198241383</v>
       </c>
       <c r="J12">
-        <v>1.016011550901997</v>
+        <v>0.9514341743615582</v>
       </c>
       <c r="K12">
-        <v>1.046180580854841</v>
+        <v>1.028865336952091</v>
       </c>
       <c r="L12">
-        <v>1.015353449047237</v>
+        <v>0.9530121854187593</v>
       </c>
       <c r="M12">
-        <v>1.046573250277749</v>
+        <v>1.008244186020888</v>
       </c>
       <c r="N12">
-        <v>1.009196141855619</v>
+        <v>0.986120305737445</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009246360540196</v>
+        <v>0.9181899841597416</v>
       </c>
       <c r="D13">
-        <v>1.042634266113093</v>
+        <v>1.014242927779936</v>
       </c>
       <c r="E13">
-        <v>1.011718130061407</v>
+        <v>0.9369707755894601</v>
       </c>
       <c r="F13">
-        <v>1.04304606401449</v>
+        <v>0.9933175697688396</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034908073429748</v>
+        <v>1.042432832200153</v>
       </c>
       <c r="J13">
-        <v>1.016074340289043</v>
+        <v>0.9518039173717159</v>
       </c>
       <c r="K13">
-        <v>1.046212024865871</v>
+        <v>1.029059114624454</v>
       </c>
       <c r="L13">
-        <v>1.015413960285702</v>
+        <v>0.9533655554803165</v>
       </c>
       <c r="M13">
-        <v>1.046622302349062</v>
+        <v>1.008529455800112</v>
       </c>
       <c r="N13">
-        <v>1.009217995127632</v>
+        <v>0.9862528666462227</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>1.009515804959319</v>
+        <v>0.9198331187616329</v>
       </c>
       <c r="D14">
-        <v>1.042769109591558</v>
+        <v>1.015030565835768</v>
       </c>
       <c r="E14">
-        <v>1.01194974421679</v>
+        <v>0.9383115377752292</v>
       </c>
       <c r="F14">
-        <v>1.043238801935954</v>
+        <v>0.9944147196490979</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034936735652793</v>
+        <v>1.042689005832943</v>
       </c>
       <c r="J14">
-        <v>1.016280019416042</v>
+        <v>0.9530090582545173</v>
       </c>
       <c r="K14">
-        <v>1.046314992142373</v>
+        <v>1.029691092006272</v>
       </c>
       <c r="L14">
-        <v>1.015612180207779</v>
+        <v>0.9545174100691594</v>
       </c>
       <c r="M14">
-        <v>1.046782967106437</v>
+        <v>1.009459848742813</v>
       </c>
       <c r="N14">
-        <v>1.009289566318406</v>
+        <v>0.9866849178072709</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009681781542429</v>
+        <v>0.9208388642632748</v>
       </c>
       <c r="D15">
-        <v>1.042852160296442</v>
+        <v>1.015513408257304</v>
       </c>
       <c r="E15">
-        <v>1.012092423708241</v>
+        <v>0.9391325830469279</v>
       </c>
       <c r="F15">
-        <v>1.043357523867945</v>
+        <v>0.9950871126110645</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034954350864694</v>
+        <v>1.042845722986724</v>
       </c>
       <c r="J15">
-        <v>1.016406703178162</v>
+        <v>0.9537467926028466</v>
       </c>
       <c r="K15">
-        <v>1.046378386734242</v>
+        <v>1.030078240298334</v>
       </c>
       <c r="L15">
-        <v>1.015734272169935</v>
+        <v>0.9552225851181224</v>
       </c>
       <c r="M15">
-        <v>1.04688191362587</v>
+        <v>1.010029830771002</v>
       </c>
       <c r="N15">
-        <v>1.009333638722408</v>
+        <v>0.9869493856210968</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010647279329926</v>
+        <v>0.9265951643670898</v>
       </c>
       <c r="D16">
-        <v>1.043335081476528</v>
+        <v>1.018287440686453</v>
       </c>
       <c r="E16">
-        <v>1.012922494145183</v>
+        <v>0.9438372546996592</v>
       </c>
       <c r="F16">
-        <v>1.044048076965312</v>
+        <v>0.9989475231342244</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035056199309763</v>
+        <v>1.043741187892218</v>
       </c>
       <c r="J16">
-        <v>1.017143422474447</v>
+        <v>0.9579702056261136</v>
       </c>
       <c r="K16">
-        <v>1.046746654634396</v>
+        <v>1.032298445702486</v>
       </c>
       <c r="L16">
-        <v>1.016444326902632</v>
+        <v>0.9592604833483155</v>
       </c>
       <c r="M16">
-        <v>1.047457150136519</v>
+        <v>1.013299072705613</v>
       </c>
       <c r="N16">
-        <v>1.009589779656025</v>
+        <v>0.9884631513078136</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011252427571169</v>
+        <v>0.930123975993274</v>
       </c>
       <c r="D17">
-        <v>1.043637592092244</v>
+        <v>1.019996614508694</v>
       </c>
       <c r="E17">
-        <v>1.013442841526445</v>
+        <v>0.9467259550559186</v>
       </c>
       <c r="F17">
-        <v>1.044480840056042</v>
+        <v>1.001323968576709</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035119487736606</v>
+        <v>1.044288599442534</v>
       </c>
       <c r="J17">
-        <v>1.017604993595315</v>
+        <v>0.9605600635677543</v>
       </c>
       <c r="K17">
-        <v>1.046977029565916</v>
+        <v>1.033662885337674</v>
       </c>
       <c r="L17">
-        <v>1.016889226028765</v>
+        <v>0.9617373260848896</v>
       </c>
       <c r="M17">
-        <v>1.047817388490848</v>
+        <v>1.015308823583133</v>
       </c>
       <c r="N17">
-        <v>1.009750117727743</v>
+        <v>0.9893911299808948</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011605229439809</v>
+        <v>0.932154218529415</v>
       </c>
       <c r="D18">
-        <v>1.04381389282556</v>
+        <v>1.020982817630887</v>
       </c>
       <c r="E18">
-        <v>1.013746233382226</v>
+        <v>0.9483894788234249</v>
       </c>
       <c r="F18">
-        <v>1.044733119288688</v>
+        <v>1.002694526305749</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035156187239233</v>
+        <v>1.044602901695038</v>
       </c>
       <c r="J18">
-        <v>1.017874023058829</v>
+        <v>0.9620503071827011</v>
       </c>
       <c r="K18">
-        <v>1.047111176729931</v>
+        <v>1.03444892968707</v>
       </c>
       <c r="L18">
-        <v>1.017148550312981</v>
+        <v>0.9631627969551413</v>
       </c>
       <c r="M18">
-        <v>1.048027296830619</v>
+        <v>1.016466910246252</v>
       </c>
       <c r="N18">
-        <v>1.009843521172261</v>
+        <v>0.9899249828881471</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011725497079173</v>
+        <v>0.9328418533013041</v>
       </c>
       <c r="D19">
-        <v>1.04387398164128</v>
+        <v>1.021317304354916</v>
       </c>
       <c r="E19">
-        <v>1.013849662375704</v>
+        <v>0.9489531640510517</v>
       </c>
       <c r="F19">
-        <v>1.044819115623741</v>
+        <v>1.003159267942141</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03516866426591</v>
+        <v>1.044709237698553</v>
       </c>
       <c r="J19">
-        <v>1.017965721925431</v>
+        <v>0.9625550770845204</v>
       </c>
       <c r="K19">
-        <v>1.047156879035292</v>
+        <v>1.034715319447873</v>
       </c>
       <c r="L19">
-        <v>1.017236943226875</v>
+        <v>0.9636456701160853</v>
       </c>
       <c r="M19">
-        <v>1.048098834169899</v>
+        <v>1.016859438281581</v>
       </c>
       <c r="N19">
-        <v>1.009875349211112</v>
+        <v>0.9901057856042773</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011187518637312</v>
+        <v>0.9297483016716469</v>
       </c>
       <c r="D20">
-        <v>1.043605150941936</v>
+        <v>1.019814354945696</v>
       </c>
       <c r="E20">
-        <v>1.013387025432044</v>
+        <v>0.9464182625024337</v>
       </c>
       <c r="F20">
-        <v>1.044434423604186</v>
+        <v>1.001070624706794</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035112719786508</v>
+        <v>1.044230387268094</v>
       </c>
       <c r="J20">
-        <v>1.01755549182724</v>
+        <v>0.9602843260623871</v>
       </c>
       <c r="K20">
-        <v>1.046952335965611</v>
+        <v>1.033517516525856</v>
       </c>
       <c r="L20">
-        <v>1.016841511007119</v>
+        <v>0.9614735940678968</v>
       </c>
       <c r="M20">
-        <v>1.047778760334203</v>
+        <v>1.015094674557622</v>
       </c>
       <c r="N20">
-        <v>1.00973292729965</v>
+        <v>0.9892923418621412</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009436468023033</v>
+        <v>0.9193506502628089</v>
       </c>
       <c r="D21">
-        <v>1.042729407968616</v>
+        <v>1.01479913849689</v>
       </c>
       <c r="E21">
-        <v>1.011881544974262</v>
+        <v>0.9379177742132708</v>
       </c>
       <c r="F21">
-        <v>1.043182051731683</v>
+        <v>0.9940923900025213</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034928304619612</v>
+        <v>1.042613803373801</v>
       </c>
       <c r="J21">
-        <v>1.01621946078874</v>
+        <v>0.9526551793253522</v>
       </c>
       <c r="K21">
-        <v>1.046284680627588</v>
+        <v>1.029505458107606</v>
       </c>
       <c r="L21">
-        <v>1.01555381728333</v>
+        <v>0.9541791655317963</v>
       </c>
       <c r="M21">
-        <v>1.046735664581835</v>
+        <v>1.009186554922557</v>
       </c>
       <c r="N21">
-        <v>1.009268495592347</v>
+        <v>0.9865580528263328</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008333904875009</v>
+        <v>0.9125269642659793</v>
       </c>
       <c r="D22">
-        <v>1.042177448952804</v>
+        <v>1.011540062305704</v>
       </c>
       <c r="E22">
-        <v>1.010933876359486</v>
+        <v>0.9323558069218373</v>
       </c>
       <c r="F22">
-        <v>1.042393316870428</v>
+        <v>0.9895495426952778</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034810411446517</v>
+        <v>1.041548897784931</v>
       </c>
       <c r="J22">
-        <v>1.015377619774331</v>
+        <v>0.9476517996100444</v>
       </c>
       <c r="K22">
-        <v>1.045862850301309</v>
+        <v>1.02688632312734</v>
       </c>
       <c r="L22">
-        <v>1.014742544874372</v>
+        <v>0.949397960851828</v>
       </c>
       <c r="M22">
-        <v>1.046077895059011</v>
+        <v>1.005330907338911</v>
       </c>
       <c r="N22">
-        <v>1.008975400616499</v>
+        <v>0.9847641252574042</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008918550242514</v>
+        <v>0.9161732426834651</v>
       </c>
       <c r="D23">
-        <v>1.042470180623124</v>
+        <v>1.013278269745134</v>
       </c>
       <c r="E23">
-        <v>1.011436361409522</v>
+        <v>0.9353262126742127</v>
       </c>
       <c r="F23">
-        <v>1.042811566153862</v>
+        <v>0.9919733046992586</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034873093219633</v>
+        <v>1.042118205342263</v>
       </c>
       <c r="J23">
-        <v>1.015824071026052</v>
+        <v>0.950324992814887</v>
       </c>
       <c r="K23">
-        <v>1.046086665103291</v>
+        <v>1.028284363694294</v>
       </c>
       <c r="L23">
-        <v>1.015172774203533</v>
+        <v>0.9519521894847774</v>
       </c>
       <c r="M23">
-        <v>1.046426775337048</v>
+        <v>1.00738892471627</v>
       </c>
       <c r="N23">
-        <v>1.009130879743878</v>
+        <v>0.9857226261516849</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011216848718677</v>
+        <v>0.9299181390704393</v>
       </c>
       <c r="D24">
-        <v>1.04361981016091</v>
+        <v>1.019896743257458</v>
       </c>
       <c r="E24">
-        <v>1.013412246687279</v>
+        <v>0.9465573614183409</v>
       </c>
       <c r="F24">
-        <v>1.044455397646697</v>
+        <v>1.001185147895329</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035115778598063</v>
+        <v>1.044256706239144</v>
       </c>
       <c r="J24">
-        <v>1.017577860154867</v>
+        <v>0.9604089827011379</v>
       </c>
       <c r="K24">
-        <v>1.04696349464129</v>
+        <v>1.033583232665252</v>
       </c>
       <c r="L24">
-        <v>1.016863071921271</v>
+        <v>0.961592822412814</v>
       </c>
       <c r="M24">
-        <v>1.047796215392767</v>
+        <v>1.015191482925173</v>
       </c>
       <c r="N24">
-        <v>1.009740695282076</v>
+        <v>0.9893370028121885</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01387722827824</v>
+        <v>0.9447792643132173</v>
       </c>
       <c r="D25">
-        <v>1.044948065006041</v>
+        <v>1.02715954439403</v>
       </c>
       <c r="E25">
-        <v>1.015700549318791</v>
+        <v>0.9587592248807365</v>
       </c>
       <c r="F25">
-        <v>1.046357327541651</v>
+        <v>1.011269042811429</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035388946115932</v>
+        <v>1.046543684170201</v>
       </c>
       <c r="J25">
-        <v>1.019605325201447</v>
+        <v>0.9713194836204944</v>
       </c>
       <c r="K25">
-        <v>1.047972119356874</v>
+        <v>1.039350381513763</v>
       </c>
       <c r="L25">
-        <v>1.018817614809866</v>
+        <v>0.9720333691322349</v>
       </c>
       <c r="M25">
-        <v>1.049377043632187</v>
+        <v>1.023694904345822</v>
       </c>
       <c r="N25">
-        <v>1.010443690523745</v>
+        <v>0.9932428947213838</v>
       </c>
     </row>
   </sheetData>
